--- a/Individuales/junio/Eliana_Lopez_junio.xlsx
+++ b/Individuales/junio/Eliana_Lopez_junio.xlsx
@@ -2,9 +2,8 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -16,9 +15,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00_-"/>
-    <numFmt numFmtId="165" formatCode="&quot;USD&quot; #,##0.00"/>
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00_-"/>
+    <numFmt numFmtId="166" formatCode="&quot;USD&quot; #,##0.00"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -29,7 +29,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="Calibri"/>
+      <family val="2"/>
       <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b val="1"/>
@@ -69,10 +74,19 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -97,22 +111,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="3" fillId="3" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -475,41 +490,41 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="inlineStr">
+      <c r="A1" s="3" t="inlineStr">
         <is>
           <t>Nombre</t>
         </is>
       </c>
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="3" t="inlineStr">
         <is>
           <t>Fecha</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C1" s="3" t="inlineStr">
         <is>
           <t>Descripcion</t>
         </is>
       </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="D1" s="3" t="inlineStr">
         <is>
           <t>Observaciones</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="E1" s="3" t="inlineStr">
         <is>
           <t>Pesos</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Dolares</t>
         </is>
@@ -521,20 +536,23 @@
           <t>Eliana Lopez</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>5/24/2025</t>
-        </is>
+      <c r="B2" s="2" t="n">
+        <v>45834</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
           <t>Familia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="n">
-        <v>3161626</v>
-      </c>
-      <c r="F2" s="4" t="n">
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Aprobado por gerencia</t>
+        </is>
+      </c>
+      <c r="E2" s="4" t="n">
+        <v>4147424</v>
+      </c>
+      <c r="F2" s="5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -544,25 +562,18 @@
           <t>Eliana Lopez</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>5/16/2025</t>
-        </is>
+      <c r="B3" s="2" t="n">
+        <v>45828</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
           <t>Familia</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Urgente</t>
-        </is>
-      </c>
-      <c r="E3" s="3" t="n">
-        <v>2446646</v>
-      </c>
-      <c r="F3" s="4" t="n">
+      <c r="E3" s="4" t="n">
+        <v>4852683</v>
+      </c>
+      <c r="F3" s="5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -572,10 +583,8 @@
           <t>Eliana Lopez</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>5/1/2025</t>
-        </is>
+      <c r="B4" s="2" t="n">
+        <v>45821</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -584,13 +593,13 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Duplicado</t>
-        </is>
-      </c>
-      <c r="E4" s="3" t="n">
-        <v>2639916</v>
-      </c>
-      <c r="F4" s="4" t="n">
+          <t>Manual</t>
+        </is>
+      </c>
+      <c r="E4" s="4" t="n">
+        <v>2337953</v>
+      </c>
+      <c r="F4" s="5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -600,10 +609,8 @@
           <t>Eliana Lopez</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>5/7/2025</t>
-        </is>
+      <c r="B5" s="2" t="n">
+        <v>45832</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -612,13 +619,13 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Aprobado por gerencia</t>
-        </is>
-      </c>
-      <c r="E5" s="3" t="n">
-        <v>910162</v>
-      </c>
-      <c r="F5" s="4" t="n">
+          <t>En proceso</t>
+        </is>
+      </c>
+      <c r="E5" s="4" t="n">
+        <v>1668498</v>
+      </c>
+      <c r="F5" s="5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -628,10 +635,8 @@
           <t>Eliana Lopez</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>5/25/2025</t>
-        </is>
+      <c r="B6" s="2" t="n">
+        <v>45833</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -640,14 +645,14 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Pendiente de facturacion</t>
-        </is>
-      </c>
-      <c r="E6" s="3" t="n">
-        <v>2855917</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>0</v>
+          <t>Revisar documento</t>
+        </is>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>976</v>
       </c>
     </row>
     <row r="7">
@@ -656,10 +661,8 @@
           <t>Eliana Lopez</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>5/16/2025</t>
-        </is>
+      <c r="B7" s="2" t="n">
+        <v>45818</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -668,13 +671,13 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Aprobado por gerencia</t>
-        </is>
-      </c>
-      <c r="E7" s="3" t="n">
-        <v>1900251</v>
-      </c>
-      <c r="F7" s="4" t="n">
+          <t>Pendiente de facturacion</t>
+        </is>
+      </c>
+      <c r="E7" s="4" t="n">
+        <v>2294341</v>
+      </c>
+      <c r="F7" s="5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -684,10 +687,8 @@
           <t>Eliana Lopez</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>5/24/2025</t>
-        </is>
+      <c r="B8" s="2" t="n">
+        <v>45837</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -696,13 +697,13 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Duplicado</t>
-        </is>
-      </c>
-      <c r="E8" s="3" t="n">
-        <v>2304764</v>
-      </c>
-      <c r="F8" s="4" t="n">
+          <t>Revisar documento</t>
+        </is>
+      </c>
+      <c r="E8" s="4" t="n">
+        <v>3677679</v>
+      </c>
+      <c r="F8" s="5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -712,10 +713,8 @@
           <t>Eliana Lopez</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>5/29/2025</t>
-        </is>
+      <c r="B9" s="2" t="n">
+        <v>45813</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -724,13 +723,13 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Duplicado</t>
-        </is>
-      </c>
-      <c r="E9" s="3" t="n">
-        <v>2763855</v>
-      </c>
-      <c r="F9" s="4" t="n">
+          <t>Aprobado por gerencia</t>
+        </is>
+      </c>
+      <c r="E9" s="4" t="n">
+        <v>4808186</v>
+      </c>
+      <c r="F9" s="5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -740,10 +739,8 @@
           <t>Eliana Lopez</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>5/20/2025</t>
-        </is>
+      <c r="B10" s="2" t="n">
+        <v>45820</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -752,13 +749,13 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Pendiente de facturacion</t>
-        </is>
-      </c>
-      <c r="E10" s="3" t="n">
-        <v>4450002</v>
-      </c>
-      <c r="F10" s="4" t="n">
+          <t>Duplicado</t>
+        </is>
+      </c>
+      <c r="E10" s="4" t="n">
+        <v>978373</v>
+      </c>
+      <c r="F10" s="5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -768,25 +765,18 @@
           <t>Eliana Lopez</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>5/1/2025</t>
-        </is>
+      <c r="B11" s="2" t="n">
+        <v>45813</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
           <t>Familia</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>En proceso</t>
-        </is>
-      </c>
-      <c r="E11" s="3" t="n">
-        <v>2724862</v>
-      </c>
-      <c r="F11" s="4" t="n">
+      <c r="E11" s="4" t="n">
+        <v>1959863</v>
+      </c>
+      <c r="F11" s="5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -796,20 +786,23 @@
           <t>Eliana Lopez</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>5/7/2025</t>
-        </is>
+      <c r="B12" s="2" t="n">
+        <v>45831</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
           <t>Familia</t>
         </is>
       </c>
-      <c r="E12" s="3" t="n">
-        <v>1198789</v>
-      </c>
-      <c r="F12" s="4" t="n">
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Revisar documento</t>
+        </is>
+      </c>
+      <c r="E12" s="4" t="n">
+        <v>3045829</v>
+      </c>
+      <c r="F12" s="5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -819,10 +812,8 @@
           <t>Eliana Lopez</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>5/28/2025</t>
-        </is>
+      <c r="B13" s="2" t="n">
+        <v>45834</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -831,27 +822,74 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Revisar documento</t>
-        </is>
-      </c>
-      <c r="E13" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" s="4" t="n">
-        <v>814</v>
+          <t>Urgente</t>
+        </is>
+      </c>
+      <c r="E13" s="4" t="n">
+        <v>2775032</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
-      <c r="E14" s="5">
-        <f>SUM(E2:E13)</f>
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Eliana Lopez</t>
+        </is>
+      </c>
+      <c r="B14" s="2" t="n">
+        <v>45831</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Familia</t>
+        </is>
+      </c>
+      <c r="E14" s="4" t="n">
+        <v>2485596</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Eliana Lopez</t>
+        </is>
+      </c>
+      <c r="B15" s="2" t="n">
+        <v>45831</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Familia</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Confirmado por cliente</t>
+        </is>
+      </c>
+      <c r="E15" s="4" t="n">
+        <v>4120627</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="E16" s="6">
+        <f>SUM(E2:E15)</f>
         <v/>
       </c>
-      <c r="F14" s="5">
-        <f>SUM(F2:F13)</f>
+      <c r="F16" s="6">
+        <f>SUM(F2:F15)</f>
         <v/>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>